--- a/biology/Zoologie/Colobura_annulata/Colobura_annulata.xlsx
+++ b/biology/Zoologie/Colobura_annulata/Colobura_annulata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Colobura annulata est une espèce de lépidoptères (papillons) de la famille des Nymphalidae, de la sous-famille des Nymphalinae, de la tribu des Nymphalini et du genre Colobura.
 </t>
@@ -511,11 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colobura annulata a été décrit par Keith R. Willmott (d), Luis Miguel Constantino (d) et Jason P. W. Hall en 2001[1].
-Noms vernaculaires
-Il se nomme Annulata Beauty, Annulata Mosaic ou encore New Beauty en anglais[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colobura annulata a été décrit par Keith R. Willmott (d), Luis Miguel Constantino (d) et Jason P. W. Hall en 2001.
 </t>
         </is>
       </c>
@@ -541,17 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'imago est de taille moyenne avec une envergure d'environ 66 mm, il présente un dessus de couleur marron foncé avec les ailes antérieures barrées d'une large bande blanche[3].
-Le revers est zébré marron et blanc avec la même bande blanche.
-Chenille
-Les chenilles sont noires annelées de blanc et portent des épines jaunes[4].
-Chrysalide
-Les nymphes ressemblent à des brindilles mortes, sur la plante hôte[5].
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se nomme Annulata Beauty, Annulata Mosaic ou encore New Beauty en anglais.
 </t>
         </is>
       </c>
@@ -577,14 +590,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol
-Plantes hôtes
-La chenille de Colobura annulata se nourrit de plantes du genre Cecropia dont Cecropia eximia, Cecropia longipes, Cecropia peltata et Cecropia virgusa[1].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'imago est de taille moyenne avec une envergure d'environ 66 mm, il présente un dessus de couleur marron foncé avec les ailes antérieures barrées d'une large bande blanche.
+Le revers est zébré marron et blanc avec la même bande blanche.
 </t>
         </is>
       </c>
@@ -610,14 +624,162 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les chenilles sont noires annelées de blanc et portent des épines jaunes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Colobura_annulata</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colobura_annulata</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chrysalide</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les nymphes ressemblent à des brindilles mortes, sur la plante hôte.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Colobura_annulata</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colobura_annulata</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille de Colobura annulata se nourrit de plantes du genre Cecropia dont Cecropia eximia, Cecropia longipes, Cecropia peltata et Cecropia virgusa.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Colobura_annulata</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colobura_annulata</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colobura annulata est présent au Mexique, au Venezuela, à Trinité-et-Tobago, en Guyane, au Guyana, au Surinam, en Bolivie, en Équateur et au Brésil[1].
-Biotope
-Colobura annulata réside dans les forêts entre 200 et 1 500 mètres[6].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colobura annulata est présent au Mexique, au Venezuela, à Trinité-et-Tobago, en Guyane, au Guyana, au Surinam, en Bolivie, en Équateur et au Brésil.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Colobura_annulata</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colobura_annulata</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colobura annulata réside dans les forêts entre 200 et 1 500 mètres.
 </t>
         </is>
       </c>
